--- a/predictions/Прогнозы_Holt-Winters_AdAd.xlsx
+++ b/predictions/Прогнозы_Holt-Winters_AdAd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16701471.30906303</v>
+        <v>18826188.98971996</v>
       </c>
       <c r="C2" t="n">
-        <v>20621451.01267796</v>
+        <v>19703033.91455771</v>
       </c>
       <c r="D2" t="n">
-        <v>22108477.07205828</v>
+        <v>17283560.6543422</v>
       </c>
       <c r="E2" t="n">
-        <v>20299173.39723837</v>
+        <v>14909365.86285128</v>
       </c>
       <c r="F2" t="n">
-        <v>18535119.56722313</v>
+        <v>15458032.15866366</v>
       </c>
       <c r="G2" t="n">
-        <v>19693934.83805199</v>
+        <v>15660019.40960958</v>
       </c>
       <c r="H2" t="n">
-        <v>20284003.48872718</v>
+        <v>16260136.66566291</v>
       </c>
       <c r="I2" t="n">
-        <v>21716399.46950906</v>
+        <v>15163530.80052482</v>
       </c>
       <c r="J2" t="n">
-        <v>21229967.07827958</v>
+        <v>14262089.56035568</v>
       </c>
       <c r="K2" t="n">
-        <v>20938693.70047668</v>
+        <v>15249931.58423777</v>
       </c>
       <c r="L2" t="n">
-        <v>22536680.79275116</v>
+        <v>15464818.7500338</v>
       </c>
       <c r="M2" t="n">
-        <v>23362074.0469249</v>
+        <v>10761649.0278274</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14808111.54326026</v>
+        <v>13509398.03463655</v>
       </c>
       <c r="C3" t="n">
-        <v>15640310.97376279</v>
+        <v>16770095.91089415</v>
       </c>
       <c r="D3" t="n">
-        <v>19408002.19531962</v>
+        <v>14362039.36278901</v>
       </c>
       <c r="E3" t="n">
-        <v>17506943.38665882</v>
+        <v>15714566.97571854</v>
       </c>
       <c r="F3" t="n">
-        <v>19366472.3910212</v>
+        <v>14724069.01749665</v>
       </c>
       <c r="G3" t="n">
-        <v>18882978.64508722</v>
+        <v>14304148.98203796</v>
       </c>
       <c r="H3" t="n">
-        <v>20112712.7547792</v>
+        <v>15682532.01943521</v>
       </c>
       <c r="I3" t="n">
-        <v>20855624.76133218</v>
+        <v>16183425.52543284</v>
       </c>
       <c r="J3" t="n">
-        <v>21863501.38407889</v>
+        <v>16640445.41044704</v>
       </c>
       <c r="K3" t="n">
-        <v>22827499.68614359</v>
+        <v>17007144.46095074</v>
       </c>
       <c r="L3" t="n">
-        <v>23701175.92996893</v>
+        <v>18342955.74721057</v>
       </c>
       <c r="M3" t="n">
-        <v>25544333.08832514</v>
+        <v>17159570.38416561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25993071.2614233</v>
+        <v>61314624.28710142</v>
       </c>
       <c r="C4" t="n">
-        <v>28795563.26945266</v>
+        <v>69375107.54582712</v>
       </c>
       <c r="D4" t="n">
-        <v>31113235.05790583</v>
+        <v>78338742.80114332</v>
       </c>
       <c r="E4" t="n">
-        <v>34360857.67428532</v>
+        <v>86834633.85164112</v>
       </c>
       <c r="F4" t="n">
-        <v>36962145.51260442</v>
+        <v>96209434.51092955</v>
       </c>
       <c r="G4" t="n">
-        <v>40199160.79450492</v>
+        <v>105110618.0020458</v>
       </c>
       <c r="H4" t="n">
-        <v>44066393.59385483</v>
+        <v>115727241.5134658</v>
       </c>
       <c r="I4" t="n">
-        <v>46741127.59448501</v>
+        <v>125429964.5268258</v>
       </c>
       <c r="J4" t="n">
-        <v>50237040.21917008</v>
+        <v>134707830.7421932</v>
       </c>
       <c r="K4" t="n">
-        <v>53750992.02011687</v>
+        <v>143736385.9646578</v>
       </c>
       <c r="L4" t="n">
-        <v>56483875.47455668</v>
+        <v>153061391.1936745</v>
       </c>
       <c r="M4" t="n">
-        <v>59913880.81664396</v>
+        <v>161547343.1338927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20799308.15571259</v>
+        <v>29926109.15602097</v>
       </c>
       <c r="C5" t="n">
-        <v>23368082.69396995</v>
+        <v>28919382.64647436</v>
       </c>
       <c r="D5" t="n">
-        <v>25870948.76915539</v>
+        <v>31428562.18043486</v>
       </c>
       <c r="E5" t="n">
-        <v>28322850.64064835</v>
+        <v>33112717.45803176</v>
       </c>
       <c r="F5" t="n">
-        <v>30910074.66658771</v>
+        <v>34244653.57731075</v>
       </c>
       <c r="G5" t="n">
-        <v>33701190.12617122</v>
+        <v>32917800.6426454</v>
       </c>
       <c r="H5" t="n">
-        <v>36575277.45131198</v>
+        <v>34597749.34644656</v>
       </c>
       <c r="I5" t="n">
-        <v>40026108.4829618</v>
+        <v>36170069.62464191</v>
       </c>
       <c r="J5" t="n">
-        <v>43824817.99962875</v>
+        <v>36679733.19150778</v>
       </c>
       <c r="K5" t="n">
-        <v>45076198.68192381</v>
+        <v>39029599.07466211</v>
       </c>
       <c r="L5" t="n">
-        <v>47448506.82432965</v>
+        <v>50937665.85899807</v>
       </c>
       <c r="M5" t="n">
-        <v>51036642.71153555</v>
+        <v>31232888.8965553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8108466.23173427</v>
+        <v>2796888.035441759</v>
       </c>
       <c r="C6" t="n">
-        <v>13549889.33601552</v>
+        <v>3338725.464483059</v>
       </c>
       <c r="D6" t="n">
-        <v>11131783.39262602</v>
+        <v>1705669.467313396</v>
       </c>
       <c r="E6" t="n">
-        <v>11854045.52805392</v>
+        <v>6117414.01973193</v>
       </c>
       <c r="F6" t="n">
-        <v>13845288.2287253</v>
+        <v>890979.8971264593</v>
       </c>
       <c r="G6" t="n">
-        <v>13714298.66750802</v>
+        <v>2394731.406027563</v>
       </c>
       <c r="H6" t="n">
-        <v>13411277.28122807</v>
+        <v>1808232.405584522</v>
       </c>
       <c r="I6" t="n">
-        <v>13606057.68296266</v>
+        <v>3278951.697112547</v>
       </c>
       <c r="J6" t="n">
-        <v>14101800.44196689</v>
+        <v>1052160.341822023</v>
       </c>
       <c r="K6" t="n">
-        <v>15339155.65256443</v>
+        <v>3800089.135150897</v>
       </c>
       <c r="L6" t="n">
-        <v>15797966.59175896</v>
+        <v>1805993.800996059</v>
       </c>
       <c r="M6" t="n">
-        <v>23256924.03684054</v>
+        <v>1547513.879802976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1306922.823428887</v>
+        <v>15120527.77181957</v>
       </c>
       <c r="C7" t="n">
-        <v>2686881.956305039</v>
+        <v>16786177.02123174</v>
       </c>
       <c r="D7" t="n">
-        <v>2828048.326171337</v>
+        <v>15614394.25087161</v>
       </c>
       <c r="E7" t="n">
-        <v>3311268.052715758</v>
+        <v>16605288.80506632</v>
       </c>
       <c r="F7" t="n">
-        <v>2335802.876577037</v>
+        <v>15149933.88752849</v>
       </c>
       <c r="G7" t="n">
-        <v>3960780.068676249</v>
+        <v>15404448.10876032</v>
       </c>
       <c r="H7" t="n">
-        <v>2545707.342752392</v>
+        <v>15581578.08806958</v>
       </c>
       <c r="I7" t="n">
-        <v>2838869.435743945</v>
+        <v>15386063.19284943</v>
       </c>
       <c r="J7" t="n">
-        <v>3411883.997790553</v>
+        <v>16264181.62245896</v>
       </c>
       <c r="K7" t="n">
-        <v>2950748.423038912</v>
+        <v>15061128.79415897</v>
       </c>
       <c r="L7" t="n">
-        <v>3320578.883616279</v>
+        <v>15833114.72999774</v>
       </c>
       <c r="M7" t="n">
-        <v>5148594.173766416</v>
+        <v>15194019.27948845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1031466.413044841</v>
+        <v>20250021.5764416</v>
       </c>
       <c r="C8" t="n">
-        <v>1482143.039703308</v>
+        <v>22430714.34149979</v>
       </c>
       <c r="D8" t="n">
-        <v>1265182.877412309</v>
+        <v>22005146.03998556</v>
       </c>
       <c r="E8" t="n">
-        <v>1530940.875915729</v>
+        <v>20360823.24226296</v>
       </c>
       <c r="F8" t="n">
-        <v>1434857.944519989</v>
+        <v>20319954.98244419</v>
       </c>
       <c r="G8" t="n">
-        <v>1833292.210125482</v>
+        <v>20262942.01201725</v>
       </c>
       <c r="H8" t="n">
-        <v>2021926.090874891</v>
+        <v>17169496.10329531</v>
       </c>
       <c r="I8" t="n">
-        <v>1879535.989546344</v>
+        <v>19871896.28797356</v>
       </c>
       <c r="J8" t="n">
-        <v>1789726.146115739</v>
+        <v>19829182.80372894</v>
       </c>
       <c r="K8" t="n">
-        <v>2068500.38806859</v>
+        <v>21521867.15271953</v>
       </c>
       <c r="L8" t="n">
-        <v>2670374.78132432</v>
+        <v>27182671.80719221</v>
       </c>
       <c r="M8" t="n">
-        <v>2075241.686061737</v>
+        <v>15615934.84657522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11718869.01742635</v>
+        <v>28219217.6157251</v>
       </c>
       <c r="C9" t="n">
-        <v>14635150.80210743</v>
+        <v>31604452.76706308</v>
       </c>
       <c r="D9" t="n">
-        <v>17659288.17762972</v>
+        <v>32643026.00572301</v>
       </c>
       <c r="E9" t="n">
-        <v>20467591.3119701</v>
+        <v>31745002.60745715</v>
       </c>
       <c r="F9" t="n">
-        <v>23566726.92759685</v>
+        <v>32787251.23660734</v>
       </c>
       <c r="G9" t="n">
-        <v>25579353.92303413</v>
+        <v>31960312.3809677</v>
       </c>
       <c r="H9" t="n">
-        <v>28406299.82585384</v>
+        <v>32722874.58531209</v>
       </c>
       <c r="I9" t="n">
-        <v>31035666.6717838</v>
+        <v>31604709.87601446</v>
       </c>
       <c r="J9" t="n">
-        <v>33705645.44616041</v>
+        <v>31844940.86365378</v>
       </c>
       <c r="K9" t="n">
-        <v>36698436.24408365</v>
+        <v>32314183.93256107</v>
       </c>
       <c r="L9" t="n">
-        <v>39055267.84916626</v>
+        <v>40970552.45388846</v>
       </c>
       <c r="M9" t="n">
-        <v>41674761.88968208</v>
+        <v>31079154.9205984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13253097.61066664</v>
+        <v>15439079.83367721</v>
       </c>
       <c r="C10" t="n">
-        <v>15819204.80333538</v>
+        <v>16726412.8223061</v>
       </c>
       <c r="D10" t="n">
-        <v>17124031.51310773</v>
+        <v>18383320.37521406</v>
       </c>
       <c r="E10" t="n">
-        <v>18342820.48808666</v>
+        <v>19504738.63512845</v>
       </c>
       <c r="F10" t="n">
-        <v>18798877.09843091</v>
+        <v>19616080.71630661</v>
       </c>
       <c r="G10" t="n">
-        <v>18839837.85061047</v>
+        <v>22764960.14456159</v>
       </c>
       <c r="H10" t="n">
-        <v>19151690.37969901</v>
+        <v>20113006.94873776</v>
       </c>
       <c r="I10" t="n">
-        <v>20606846.04762917</v>
+        <v>19949341.73345521</v>
       </c>
       <c r="J10" t="n">
-        <v>21505777.80480853</v>
+        <v>20595357.35065885</v>
       </c>
       <c r="K10" t="n">
-        <v>21183634.50489938</v>
+        <v>20760369.53166992</v>
       </c>
       <c r="L10" t="n">
-        <v>22376786.57433246</v>
+        <v>21212481.32035306</v>
       </c>
       <c r="M10" t="n">
-        <v>25743632.67141094</v>
+        <v>20157651.54644021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-369362.9416554961</v>
+        <v>19959578.58150769</v>
       </c>
       <c r="C11" t="n">
-        <v>1243873.296461911</v>
+        <v>20372510.1273429</v>
       </c>
       <c r="D11" t="n">
-        <v>1155637.215436873</v>
+        <v>21335477.83001453</v>
       </c>
       <c r="E11" t="n">
-        <v>110919.5141191434</v>
+        <v>21741040.1262409</v>
       </c>
       <c r="F11" t="n">
-        <v>4757678.663579613</v>
+        <v>23829534.94124532</v>
       </c>
       <c r="G11" t="n">
-        <v>-192776.3881135802</v>
+        <v>24280855.75038961</v>
       </c>
       <c r="H11" t="n">
-        <v>1262786.986608837</v>
+        <v>24798833.83732787</v>
       </c>
       <c r="I11" t="n">
-        <v>660681.5933138732</v>
+        <v>26317480.12602098</v>
       </c>
       <c r="J11" t="n">
-        <v>1869888.026223286</v>
+        <v>28062409.15281166</v>
       </c>
       <c r="K11" t="n">
-        <v>-220263.6314342404</v>
+        <v>28765496.37603905</v>
       </c>
       <c r="L11" t="n">
-        <v>2261075.81098552</v>
+        <v>27983559.64332871</v>
       </c>
       <c r="M11" t="n">
-        <v>100522.6216070354</v>
+        <v>27895966.55102228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499134.2676305564</v>
+        <v>44232309.58834293</v>
       </c>
       <c r="C12" t="n">
-        <v>1151065.003031621</v>
+        <v>43801631.76439548</v>
       </c>
       <c r="D12" t="n">
-        <v>1704318.508574709</v>
+        <v>46915334.8298105</v>
       </c>
       <c r="E12" t="n">
-        <v>1039189.56450803</v>
+        <v>41990189.91728588</v>
       </c>
       <c r="F12" t="n">
-        <v>727392.5714889474</v>
+        <v>45462946.4753352</v>
       </c>
       <c r="G12" t="n">
-        <v>374605.6991964339</v>
+        <v>48175150.80013929</v>
       </c>
       <c r="H12" t="n">
-        <v>727536.7181359893</v>
+        <v>46018927.33968171</v>
       </c>
       <c r="I12" t="n">
-        <v>284872.1334205626</v>
+        <v>50239514.8133293</v>
       </c>
       <c r="J12" t="n">
-        <v>469583.2720696599</v>
+        <v>52851146.05616554</v>
       </c>
       <c r="K12" t="n">
-        <v>256150.9150661968</v>
+        <v>51833063.52956981</v>
       </c>
       <c r="L12" t="n">
-        <v>445947.6602680029</v>
+        <v>46102066.21757655</v>
       </c>
       <c r="M12" t="n">
-        <v>535418.846025002</v>
+        <v>44872991.15281407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3094711.930793023</v>
+        <v>36329677.32885344</v>
       </c>
       <c r="C13" t="n">
-        <v>3349331.222964569</v>
+        <v>34989917.92618047</v>
       </c>
       <c r="D13" t="n">
-        <v>3891297.954623156</v>
+        <v>39578757.2985884</v>
       </c>
       <c r="E13" t="n">
-        <v>3968740.664124941</v>
+        <v>33257712.09763815</v>
       </c>
       <c r="F13" t="n">
-        <v>4578753.375574631</v>
+        <v>38360760.92090141</v>
       </c>
       <c r="G13" t="n">
-        <v>4466594.893181959</v>
+        <v>40405255.64540745</v>
       </c>
       <c r="H13" t="n">
-        <v>5098599.360205928</v>
+        <v>43950989.57415126</v>
       </c>
       <c r="I13" t="n">
-        <v>5315183.286007114</v>
+        <v>44137844.44350718</v>
       </c>
       <c r="J13" t="n">
-        <v>5523775.914845031</v>
+        <v>47195114.80640136</v>
       </c>
       <c r="K13" t="n">
-        <v>6012182.483495988</v>
+        <v>41077460.15191882</v>
       </c>
       <c r="L13" t="n">
-        <v>6051804.594359504</v>
+        <v>38695262.10943464</v>
       </c>
       <c r="M13" t="n">
-        <v>6403906.599412417</v>
+        <v>36317563.4538545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-145425.2554320784</v>
+        <v>1061473.43362115</v>
       </c>
       <c r="C14" t="n">
-        <v>1079980.191985807</v>
+        <v>1123851.031979428</v>
       </c>
       <c r="D14" t="n">
-        <v>2135730.369041736</v>
+        <v>1130388.824071296</v>
       </c>
       <c r="E14" t="n">
-        <v>1250556.260337729</v>
+        <v>1115599.391719872</v>
       </c>
       <c r="F14" t="n">
-        <v>386111.5935702482</v>
+        <v>1329267.605782066</v>
       </c>
       <c r="G14" t="n">
-        <v>362689.2169460151</v>
+        <v>1722133.901806315</v>
       </c>
       <c r="H14" t="n">
-        <v>171741.0924856146</v>
+        <v>1357500.642666264</v>
       </c>
       <c r="I14" t="n">
-        <v>230298.2632748247</v>
+        <v>1390637.802011976</v>
       </c>
       <c r="J14" t="n">
-        <v>-25051.00861906365</v>
+        <v>1422106.949183466</v>
       </c>
       <c r="K14" t="n">
-        <v>736362.2142701123</v>
+        <v>1455309.846626953</v>
       </c>
       <c r="L14" t="n">
-        <v>-169777.7214521648</v>
+        <v>1480947.972676084</v>
       </c>
       <c r="M14" t="n">
-        <v>44160.90160026774</v>
+        <v>1481753.757884607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1189437.96565644</v>
+        <v>4783855.568582544</v>
       </c>
       <c r="C15" t="n">
-        <v>1126106.593731849</v>
+        <v>5982402.014588144</v>
       </c>
       <c r="D15" t="n">
-        <v>1176449.430966143</v>
+        <v>6524189.109975944</v>
       </c>
       <c r="E15" t="n">
-        <v>1285412.530091835</v>
+        <v>5205009.655618517</v>
       </c>
       <c r="F15" t="n">
-        <v>1263355.945487602</v>
+        <v>5557019.159519659</v>
       </c>
       <c r="G15" t="n">
-        <v>1425818.954449509</v>
+        <v>4744788.834517192</v>
       </c>
       <c r="H15" t="n">
-        <v>1542738.632484043</v>
+        <v>6278063.891923961</v>
       </c>
       <c r="I15" t="n">
-        <v>1456114.304482052</v>
+        <v>5892012.174192136</v>
       </c>
       <c r="J15" t="n">
-        <v>1503106.422125446</v>
+        <v>5822293.017521791</v>
       </c>
       <c r="K15" t="n">
-        <v>1574206.350424355</v>
+        <v>6598439.937678028</v>
       </c>
       <c r="L15" t="n">
-        <v>1598430.328917399</v>
+        <v>6253818.926983683</v>
       </c>
       <c r="M15" t="n">
-        <v>1919958.915186295</v>
+        <v>6190344.064759007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1649246.691909421</v>
+        <v>7166455.746568103</v>
       </c>
       <c r="C16" t="n">
-        <v>1910420.062362444</v>
+        <v>7303889.7395601</v>
       </c>
       <c r="D16" t="n">
-        <v>1943641.513403918</v>
+        <v>9735169.362727178</v>
       </c>
       <c r="E16" t="n">
-        <v>2028865.986147581</v>
+        <v>8787187.896783607</v>
       </c>
       <c r="F16" t="n">
-        <v>2206062.328131969</v>
+        <v>8840074.079580901</v>
       </c>
       <c r="G16" t="n">
-        <v>2206096.284799058</v>
+        <v>9487360.513799235</v>
       </c>
       <c r="H16" t="n">
-        <v>2374954.090799784</v>
+        <v>7714496.066475378</v>
       </c>
       <c r="I16" t="n">
-        <v>2409286.474204283</v>
+        <v>11010902.40290175</v>
       </c>
       <c r="J16" t="n">
-        <v>2485933.48699026</v>
+        <v>10317611.04131846</v>
       </c>
       <c r="K16" t="n">
-        <v>2580508.104119346</v>
+        <v>11997155.46949519</v>
       </c>
       <c r="L16" t="n">
-        <v>2614448.164964535</v>
+        <v>11656336.82087035</v>
       </c>
       <c r="M16" t="n">
-        <v>2964963.928617327</v>
+        <v>11334294.57209738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6252497.358684925</v>
+        <v>5799455.884641008</v>
       </c>
       <c r="C17" t="n">
-        <v>7218795.321991633</v>
+        <v>5132261.982455792</v>
       </c>
       <c r="D17" t="n">
-        <v>7583458.272484166</v>
+        <v>5568059.575194672</v>
       </c>
       <c r="E17" t="n">
-        <v>7501609.646732857</v>
+        <v>5321604.402871975</v>
       </c>
       <c r="F17" t="n">
-        <v>9042058.739650143</v>
+        <v>5684022.702814729</v>
       </c>
       <c r="G17" t="n">
-        <v>7938375.283441887</v>
+        <v>5944914.14683742</v>
       </c>
       <c r="H17" t="n">
-        <v>8076556.842066559</v>
+        <v>5974893.974239512</v>
       </c>
       <c r="I17" t="n">
-        <v>8241294.330220152</v>
+        <v>6655583.616770362</v>
       </c>
       <c r="J17" t="n">
-        <v>8376024.001100949</v>
+        <v>6796891.734577556</v>
       </c>
       <c r="K17" t="n">
-        <v>8224088.085191703</v>
+        <v>7167859.889576465</v>
       </c>
       <c r="L17" t="n">
-        <v>8269099.231503634</v>
+        <v>6628429.294312288</v>
       </c>
       <c r="M17" t="n">
-        <v>8199069.508058477</v>
+        <v>5968054.995474455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-498520.6395283699</v>
+        <v>4239792.35820903</v>
       </c>
       <c r="C18" t="n">
-        <v>157957.7031415768</v>
+        <v>3674713.813608521</v>
       </c>
       <c r="D18" t="n">
-        <v>292856.1321579287</v>
+        <v>3794614.202497578</v>
       </c>
       <c r="E18" t="n">
-        <v>-22790.47710846751</v>
+        <v>4910727.144277852</v>
       </c>
       <c r="F18" t="n">
-        <v>-535188.885092386</v>
+        <v>3756538.287897675</v>
       </c>
       <c r="G18" t="n">
-        <v>-346123.2907002983</v>
+        <v>3467421.576275599</v>
       </c>
       <c r="H18" t="n">
-        <v>-750039.3461777822</v>
+        <v>3826617.342258262</v>
       </c>
       <c r="I18" t="n">
-        <v>-1149888.627796192</v>
+        <v>4274614.957256366</v>
       </c>
       <c r="J18" t="n">
-        <v>-672582.788491904</v>
+        <v>3739456.10704677</v>
       </c>
       <c r="K18" t="n">
-        <v>-1071693.465498885</v>
+        <v>3651388.106156898</v>
       </c>
       <c r="L18" t="n">
-        <v>-822289.7878199634</v>
+        <v>4193351.247568341</v>
       </c>
       <c r="M18" t="n">
-        <v>1502392.239751991</v>
+        <v>3666990.475403729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-117782.8722217234</v>
+        <v>5413938.179526752</v>
       </c>
       <c r="C19" t="n">
-        <v>-125482.6020667585</v>
+        <v>7102066.306470655</v>
       </c>
       <c r="D19" t="n">
-        <v>118389.490524072</v>
+        <v>5051667.982324557</v>
       </c>
       <c r="E19" t="n">
-        <v>-126792.7817930616</v>
+        <v>4515258.994820834</v>
       </c>
       <c r="F19" t="n">
-        <v>-51666.6887032555</v>
+        <v>4474969.948118509</v>
       </c>
       <c r="G19" t="n">
-        <v>-185575.9409463617</v>
+        <v>6548705.811891555</v>
       </c>
       <c r="H19" t="n">
-        <v>-133117.0927331883</v>
+        <v>7701231.86426523</v>
       </c>
       <c r="I19" t="n">
-        <v>-218235.7971221633</v>
+        <v>5470690.496685944</v>
       </c>
       <c r="J19" t="n">
-        <v>104632.4317257119</v>
+        <v>7331057.92177939</v>
       </c>
       <c r="K19" t="n">
-        <v>-201531.5654060296</v>
+        <v>5909295.792806024</v>
       </c>
       <c r="L19" t="n">
-        <v>-263023.9370804747</v>
+        <v>7122917.952633062</v>
       </c>
       <c r="M19" t="n">
-        <v>-124633.2926524931</v>
+        <v>4158478.397441732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>840575.17745089</v>
+        <v>2204517.028255912</v>
       </c>
       <c r="C20" t="n">
-        <v>2402047.026188139</v>
+        <v>2401383.467191879</v>
       </c>
       <c r="D20" t="n">
-        <v>2183376.771080735</v>
+        <v>220949.2330448159</v>
       </c>
       <c r="E20" t="n">
-        <v>2247559.765653084</v>
+        <v>420211.0671245301</v>
       </c>
       <c r="F20" t="n">
-        <v>2249952.906379332</v>
+        <v>1398845.257084316</v>
       </c>
       <c r="G20" t="n">
-        <v>2642046.121928291</v>
+        <v>277955.281144277</v>
       </c>
       <c r="H20" t="n">
-        <v>2208436.315689383</v>
+        <v>-261590.1129596063</v>
       </c>
       <c r="I20" t="n">
-        <v>2378390.888166588</v>
+        <v>349698.3575871188</v>
       </c>
       <c r="J20" t="n">
-        <v>2392944.160612755</v>
+        <v>692990.7366248111</v>
       </c>
       <c r="K20" t="n">
-        <v>2636672.916145372</v>
+        <v>677617.7619072694</v>
       </c>
       <c r="L20" t="n">
-        <v>2559675.936177235</v>
+        <v>-484111.6835774941</v>
       </c>
       <c r="M20" t="n">
-        <v>3062783.049441121</v>
+        <v>-690858.2223940601</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1076483.309306019</v>
+        <v>2911395.44232148</v>
       </c>
       <c r="C21" t="n">
-        <v>1771189.855657912</v>
+        <v>3121511.089102732</v>
       </c>
       <c r="D21" t="n">
-        <v>1367489.133888237</v>
+        <v>3854802.488972336</v>
       </c>
       <c r="E21" t="n">
-        <v>1984113.053555927</v>
+        <v>3464113.123290896</v>
       </c>
       <c r="F21" t="n">
-        <v>2039539.060080158</v>
+        <v>4188011.660855396</v>
       </c>
       <c r="G21" t="n">
-        <v>1440014.839267818</v>
+        <v>3508711.211912747</v>
       </c>
       <c r="H21" t="n">
-        <v>1760213.834752453</v>
+        <v>3297877.508616562</v>
       </c>
       <c r="I21" t="n">
-        <v>1181975.777054643</v>
+        <v>3342947.349756773</v>
       </c>
       <c r="J21" t="n">
-        <v>1222406.970070503</v>
+        <v>4617571.227684007</v>
       </c>
       <c r="K21" t="n">
-        <v>1934674.657569211</v>
+        <v>4234127.480250445</v>
       </c>
       <c r="L21" t="n">
-        <v>1265273.15987797</v>
+        <v>4509770.24031509</v>
       </c>
       <c r="M21" t="n">
-        <v>1232185.913422194</v>
+        <v>3743024.942541695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397692.3454983404</v>
+        <v>10675253.44236154</v>
       </c>
       <c r="C22" t="n">
-        <v>-179271.5203386616</v>
+        <v>11090012.60929311</v>
       </c>
       <c r="D22" t="n">
-        <v>480237.8917049347</v>
+        <v>13784781.85979772</v>
       </c>
       <c r="E22" t="n">
-        <v>201263.6657263951</v>
+        <v>11547625.76491522</v>
       </c>
       <c r="F22" t="n">
-        <v>-265718.6935815448</v>
+        <v>13808941.27760061</v>
       </c>
       <c r="G22" t="n">
-        <v>-344358.336281058</v>
+        <v>12403719.05717373</v>
       </c>
       <c r="H22" t="n">
-        <v>-760738.7484061798</v>
+        <v>11930487.45281924</v>
       </c>
       <c r="I22" t="n">
-        <v>-888281.4777019819</v>
+        <v>13965778.11584362</v>
       </c>
       <c r="J22" t="n">
-        <v>-899173.4208064133</v>
+        <v>15480698.96471366</v>
       </c>
       <c r="K22" t="n">
-        <v>-806246.227154135</v>
+        <v>14951645.97008312</v>
       </c>
       <c r="L22" t="n">
-        <v>22346.91906978976</v>
+        <v>15252910.09621357</v>
       </c>
       <c r="M22" t="n">
-        <v>544281.8894705697</v>
+        <v>12333887.35820878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-89920.28795484277</v>
+        <v>7138819.299190144</v>
       </c>
       <c r="C23" t="n">
-        <v>71080.5984755751</v>
+        <v>6505943.456284846</v>
       </c>
       <c r="D23" t="n">
-        <v>18735.56795214088</v>
+        <v>7055876.737831694</v>
       </c>
       <c r="E23" t="n">
-        <v>-69848.02292091228</v>
+        <v>5529376.945246014</v>
       </c>
       <c r="F23" t="n">
-        <v>-24964.12669845754</v>
+        <v>6912739.684892445</v>
       </c>
       <c r="G23" t="n">
-        <v>-90075.45598060547</v>
+        <v>6387624.224982192</v>
       </c>
       <c r="H23" t="n">
-        <v>-89895.7752367385</v>
+        <v>12823686.13431052</v>
       </c>
       <c r="I23" t="n">
-        <v>-89892.88617176865</v>
+        <v>9253563.18635186</v>
       </c>
       <c r="J23" t="n">
-        <v>-89889.61300664782</v>
+        <v>5879357.272327058</v>
       </c>
       <c r="K23" t="n">
-        <v>-88746.51354611016</v>
+        <v>5450357.429612709</v>
       </c>
       <c r="L23" t="n">
-        <v>-82348.71189353547</v>
+        <v>5213836.352199245</v>
       </c>
       <c r="M23" t="n">
-        <v>207224.99418107</v>
+        <v>1063451.628438704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9114387.991025513</v>
+        <v>10421143.30603769</v>
       </c>
       <c r="C24" t="n">
-        <v>12321049.88475277</v>
+        <v>12124675.31469331</v>
       </c>
       <c r="D24" t="n">
-        <v>14285115.90461542</v>
+        <v>12550011.88059377</v>
       </c>
       <c r="E24" t="n">
-        <v>13780211.13486372</v>
+        <v>10084537.29469673</v>
       </c>
       <c r="F24" t="n">
-        <v>12715383.47971527</v>
+        <v>11359876.26729538</v>
       </c>
       <c r="G24" t="n">
-        <v>12960680.65801748</v>
+        <v>11865089.15344693</v>
       </c>
       <c r="H24" t="n">
-        <v>13343933.72733918</v>
+        <v>10811969.56318852</v>
       </c>
       <c r="I24" t="n">
-        <v>11142188.84040713</v>
+        <v>12477445.86066033</v>
       </c>
       <c r="J24" t="n">
-        <v>12574453.60092276</v>
+        <v>12120008.22402985</v>
       </c>
       <c r="K24" t="n">
-        <v>11316462.50928915</v>
+        <v>12900268.31101953</v>
       </c>
       <c r="L24" t="n">
-        <v>11851720.37471881</v>
+        <v>15638397.04684351</v>
       </c>
       <c r="M24" t="n">
-        <v>14502801.63896046</v>
+        <v>10551488.65117813</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1924092.504205803</v>
+        <v>3960105.056913437</v>
       </c>
       <c r="C25" t="n">
-        <v>2985684.943223968</v>
+        <v>5170206.092008909</v>
       </c>
       <c r="D25" t="n">
-        <v>2747987.391997609</v>
+        <v>5173805.358681425</v>
       </c>
       <c r="E25" t="n">
-        <v>2875467.228184316</v>
+        <v>3550176.443878861</v>
       </c>
       <c r="F25" t="n">
-        <v>2800523.277815085</v>
+        <v>3841741.441685791</v>
       </c>
       <c r="G25" t="n">
-        <v>2498795.755314819</v>
+        <v>4693185.113274554</v>
       </c>
       <c r="H25" t="n">
-        <v>2657080.034564837</v>
+        <v>4122911.587938861</v>
       </c>
       <c r="I25" t="n">
-        <v>2751446.418232278</v>
+        <v>5760812.699612687</v>
       </c>
       <c r="J25" t="n">
-        <v>2470455.554441674</v>
+        <v>5672397.737823062</v>
       </c>
       <c r="K25" t="n">
-        <v>3430862.472625933</v>
+        <v>5246654.694750829</v>
       </c>
       <c r="L25" t="n">
-        <v>3300347.42183331</v>
+        <v>6260723.245154666</v>
       </c>
       <c r="M25" t="n">
-        <v>3021800.457474439</v>
+        <v>3695731.450508622</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11887045.27235732</v>
+        <v>10843067.77342185</v>
       </c>
       <c r="C26" t="n">
-        <v>12295751.30722987</v>
+        <v>10776409.04530413</v>
       </c>
       <c r="D26" t="n">
-        <v>14601322.59873165</v>
+        <v>10294308.24478615</v>
       </c>
       <c r="E26" t="n">
-        <v>16966105.4798375</v>
+        <v>11849946.19119706</v>
       </c>
       <c r="F26" t="n">
-        <v>16146812.80372886</v>
+        <v>10538708.2978652</v>
       </c>
       <c r="G26" t="n">
-        <v>16670033.47470534</v>
+        <v>9765037.569711126</v>
       </c>
       <c r="H26" t="n">
-        <v>15484036.01033355</v>
+        <v>12742943.01464308</v>
       </c>
       <c r="I26" t="n">
-        <v>16106062.95923349</v>
+        <v>12900830.88789418</v>
       </c>
       <c r="J26" t="n">
-        <v>15052138.57481636</v>
+        <v>12964487.18642248</v>
       </c>
       <c r="K26" t="n">
-        <v>15316786.3216393</v>
+        <v>12007639.71508369</v>
       </c>
       <c r="L26" t="n">
-        <v>15092352.25972947</v>
+        <v>14622639.53482162</v>
       </c>
       <c r="M26" t="n">
-        <v>17085219.19603508</v>
+        <v>11973984.44024565</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16099465.18428334</v>
+        <v>3368477.179249079</v>
       </c>
       <c r="C27" t="n">
-        <v>17387622.88007396</v>
+        <v>4001904.301917709</v>
       </c>
       <c r="D27" t="n">
-        <v>18705487.215753</v>
+        <v>3136820.368685924</v>
       </c>
       <c r="E27" t="n">
-        <v>17564587.16911572</v>
+        <v>2822818.435265552</v>
       </c>
       <c r="F27" t="n">
-        <v>17729972.93603235</v>
+        <v>1975742.255007128</v>
       </c>
       <c r="G27" t="n">
-        <v>18470376.5114212</v>
+        <v>3172790.390766148</v>
       </c>
       <c r="H27" t="n">
-        <v>18509189.60371875</v>
+        <v>3164448.809031409</v>
       </c>
       <c r="I27" t="n">
-        <v>19255263.95395888</v>
+        <v>2715399.292870773</v>
       </c>
       <c r="J27" t="n">
-        <v>19781645.0355554</v>
+        <v>2817339.726655392</v>
       </c>
       <c r="K27" t="n">
-        <v>19960450.19595</v>
+        <v>2275147.891363138</v>
       </c>
       <c r="L27" t="n">
-        <v>21039385.24936493</v>
+        <v>3527044.658572794</v>
       </c>
       <c r="M27" t="n">
-        <v>27791331.63866097</v>
+        <v>1879824.24367238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19285039.19809286</v>
+        <v>12214132.10043595</v>
       </c>
       <c r="C28" t="n">
-        <v>19460522.20434103</v>
+        <v>12108738.34063872</v>
       </c>
       <c r="D28" t="n">
-        <v>20999584.62097014</v>
+        <v>12271315.35913849</v>
       </c>
       <c r="E28" t="n">
-        <v>22838280.39955542</v>
+        <v>9292587.36710831</v>
       </c>
       <c r="F28" t="n">
-        <v>24082917.36875142</v>
+        <v>11782374.47270435</v>
       </c>
       <c r="G28" t="n">
-        <v>24297776.23389784</v>
+        <v>12469560.58260471</v>
       </c>
       <c r="H28" t="n">
-        <v>24413621.40201458</v>
+        <v>12560055.14223085</v>
       </c>
       <c r="I28" t="n">
-        <v>24762879.74707715</v>
+        <v>9987325.500051815</v>
       </c>
       <c r="J28" t="n">
-        <v>25284435.03714587</v>
+        <v>9482358.273001928</v>
       </c>
       <c r="K28" t="n">
-        <v>25885540.11367746</v>
+        <v>11291808.79672999</v>
       </c>
       <c r="L28" t="n">
-        <v>26064939.43937813</v>
+        <v>15313164.88534339</v>
       </c>
       <c r="M28" t="n">
-        <v>26744241.80104734</v>
+        <v>10866272.38633515</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22361072.34538495</v>
+        <v>1841966.913848758</v>
       </c>
       <c r="C29" t="n">
-        <v>23792094.22459364</v>
+        <v>2100667.728204701</v>
       </c>
       <c r="D29" t="n">
-        <v>24371676.47587049</v>
+        <v>2235985.99759442</v>
       </c>
       <c r="E29" t="n">
-        <v>25498983.17067559</v>
+        <v>2232617.177319962</v>
       </c>
       <c r="F29" t="n">
-        <v>26068426.00300353</v>
+        <v>2385219.782445914</v>
       </c>
       <c r="G29" t="n">
-        <v>28316271.82296476</v>
+        <v>2411650.249301014</v>
       </c>
       <c r="H29" t="n">
-        <v>28629994.43134738</v>
+        <v>2281014.302036733</v>
       </c>
       <c r="I29" t="n">
-        <v>29629716.49946475</v>
+        <v>2301644.23702397</v>
       </c>
       <c r="J29" t="n">
-        <v>31315072.87702048</v>
+        <v>2199381.397841003</v>
       </c>
       <c r="K29" t="n">
-        <v>33226629.28503645</v>
+        <v>2258929.108768986</v>
       </c>
       <c r="L29" t="n">
-        <v>34067591.49338239</v>
+        <v>2235251.347129519</v>
       </c>
       <c r="M29" t="n">
-        <v>33289234.30571685</v>
+        <v>2267341.409744079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41070271.19090651</v>
+        <v>246818.6967966538</v>
       </c>
       <c r="C30" t="n">
-        <v>46133576.28213177</v>
+        <v>158492.3468209573</v>
       </c>
       <c r="D30" t="n">
-        <v>45789775.23048452</v>
+        <v>224884.1407658859</v>
       </c>
       <c r="E30" t="n">
-        <v>48990332.26875492</v>
+        <v>33074.78451375386</v>
       </c>
       <c r="F30" t="n">
-        <v>44152112.05399497</v>
+        <v>-86046.53842949703</v>
       </c>
       <c r="G30" t="n">
-        <v>47711743.84788557</v>
+        <v>4279.417999057903</v>
       </c>
       <c r="H30" t="n">
-        <v>53836541.398516</v>
+        <v>-104953.3945423734</v>
       </c>
       <c r="I30" t="n">
-        <v>48441795.04198153</v>
+        <v>-170749.9671521163</v>
       </c>
       <c r="J30" t="n">
-        <v>52749169.27107996</v>
+        <v>-235469.1877242158</v>
       </c>
       <c r="K30" t="n">
-        <v>55447588.79864408</v>
+        <v>-287393.4016730366</v>
       </c>
       <c r="L30" t="n">
-        <v>54516319.63565297</v>
+        <v>11400.48898809071</v>
       </c>
       <c r="M30" t="n">
-        <v>48873336.38474309</v>
+        <v>-371922.7152166982</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34737011.10548656</v>
+        <v>3070089.352911789</v>
       </c>
       <c r="C31" t="n">
-        <v>38080162.85361119</v>
+        <v>3308981.799667917</v>
       </c>
       <c r="D31" t="n">
-        <v>36690179.5174396</v>
+        <v>3325327.755920782</v>
       </c>
       <c r="E31" t="n">
-        <v>41228855.28600823</v>
+        <v>3090356.285408705</v>
       </c>
       <c r="F31" t="n">
-        <v>34857574.8770825</v>
+        <v>3191420.363764121</v>
       </c>
       <c r="G31" t="n">
-        <v>39910456.29327099</v>
+        <v>3034373.903315273</v>
       </c>
       <c r="H31" t="n">
-        <v>44021083.09892313</v>
+        <v>3139139.595269558</v>
       </c>
       <c r="I31" t="n">
-        <v>45400627.05310062</v>
+        <v>3338698.123376439</v>
       </c>
       <c r="J31" t="n">
-        <v>45537282.12202801</v>
+        <v>3452237.92754482</v>
       </c>
       <c r="K31" t="n">
-        <v>48544382.86187508</v>
+        <v>3558047.87405534</v>
       </c>
       <c r="L31" t="n">
-        <v>42376526.30506872</v>
+        <v>3534352.800184093</v>
       </c>
       <c r="M31" t="n">
-        <v>39944894.93506096</v>
+        <v>3190192.460364149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1521683.707762986</v>
+        <v>1526311.197347574</v>
       </c>
       <c r="C32" t="n">
-        <v>1682293.183090912</v>
+        <v>1771626.347351611</v>
       </c>
       <c r="D32" t="n">
-        <v>1825368.523960952</v>
+        <v>1890297.601173121</v>
       </c>
       <c r="E32" t="n">
-        <v>1912602.547591681</v>
+        <v>1722441.816936353</v>
       </c>
       <c r="F32" t="n">
-        <v>1978508.524670346</v>
+        <v>1819101.544749187</v>
       </c>
       <c r="G32" t="n">
-        <v>2272871.591813928</v>
+        <v>1870674.408120924</v>
       </c>
       <c r="H32" t="n">
-        <v>2343504.689547301</v>
+        <v>1726195.705565274</v>
       </c>
       <c r="I32" t="n">
-        <v>2462432.000889186</v>
+        <v>1985483.969216058</v>
       </c>
       <c r="J32" t="n">
-        <v>2576279.707241447</v>
+        <v>1971095.190855023</v>
       </c>
       <c r="K32" t="n">
-        <v>2688457.080624178</v>
+        <v>1831653.727191383</v>
       </c>
       <c r="L32" t="n">
-        <v>2802365.759660494</v>
+        <v>1986777.965816873</v>
       </c>
       <c r="M32" t="n">
-        <v>2908655.119325666</v>
+        <v>1631885.291926704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4970012.125600465</v>
+        <v>2726595.496495079</v>
       </c>
       <c r="C33" t="n">
-        <v>5082988.072684309</v>
+        <v>2998643.522598537</v>
       </c>
       <c r="D33" t="n">
-        <v>6298068.731224805</v>
+        <v>3122420.434557836</v>
       </c>
       <c r="E33" t="n">
-        <v>6856398.633084229</v>
+        <v>2964152.658610424</v>
       </c>
       <c r="F33" t="n">
-        <v>5553761.136921874</v>
+        <v>3550255.712068525</v>
       </c>
       <c r="G33" t="n">
-        <v>5922298.569324629</v>
+        <v>3794735.42815414</v>
       </c>
       <c r="H33" t="n">
-        <v>5616051.348000894</v>
+        <v>3829767.539631446</v>
       </c>
       <c r="I33" t="n">
-        <v>6676458.446352728</v>
+        <v>3779045.622876972</v>
       </c>
       <c r="J33" t="n">
-        <v>6306934.763122413</v>
+        <v>3818169.537061288</v>
       </c>
       <c r="K33" t="n">
-        <v>6253740.398069648</v>
+        <v>3723853.655074041</v>
       </c>
       <c r="L33" t="n">
-        <v>7046406.885173635</v>
+        <v>3897274.046344429</v>
       </c>
       <c r="M33" t="n">
-        <v>6718183.324006731</v>
+        <v>3920165.637910484</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11745873.78123813</v>
+        <v>2584514.180229418</v>
       </c>
       <c r="C34" t="n">
-        <v>9593987.74970928</v>
+        <v>2740838.097430371</v>
       </c>
       <c r="D34" t="n">
-        <v>9701684.26234303</v>
+        <v>2923942.66540821</v>
       </c>
       <c r="E34" t="n">
-        <v>12103232.65567389</v>
+        <v>3031218.573963295</v>
       </c>
       <c r="F34" t="n">
-        <v>11125481.46827932</v>
+        <v>3081113.758317152</v>
       </c>
       <c r="G34" t="n">
-        <v>11148626.94193443</v>
+        <v>2840175.376314384</v>
       </c>
       <c r="H34" t="n">
-        <v>11104824.06958612</v>
+        <v>3733839.949458244</v>
       </c>
       <c r="I34" t="n">
-        <v>9963473.026897835</v>
+        <v>2808192.338169443</v>
       </c>
       <c r="J34" t="n">
-        <v>13230204.15076358</v>
+        <v>3775982.779044635</v>
       </c>
       <c r="K34" t="n">
-        <v>12507186.46468268</v>
+        <v>3019682.934744996</v>
       </c>
       <c r="L34" t="n">
-        <v>14157014.22188574</v>
+        <v>3482854.251925804</v>
       </c>
       <c r="M34" t="n">
-        <v>13786430.0393662</v>
+        <v>3097946.539880676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5202304.817521821</v>
+        <v>1225848.317002705</v>
       </c>
       <c r="C35" t="n">
-        <v>6279370.351373105</v>
+        <v>1652951.229153503</v>
       </c>
       <c r="D35" t="n">
-        <v>5617921.463932523</v>
+        <v>1339613.758991314</v>
       </c>
       <c r="E35" t="n">
-        <v>6059453.656396986</v>
+        <v>1270525.858314504</v>
       </c>
       <c r="F35" t="n">
-        <v>5818735.794074063</v>
+        <v>1152976.902439759</v>
       </c>
       <c r="G35" t="n">
-        <v>6186886.739234776</v>
+        <v>1613050.484090244</v>
       </c>
       <c r="H35" t="n">
-        <v>6481121.115732654</v>
+        <v>1427788.306136416</v>
       </c>
       <c r="I35" t="n">
-        <v>6489229.69302597</v>
+        <v>1597410.074481677</v>
       </c>
       <c r="J35" t="n">
-        <v>7175638.323262095</v>
+        <v>1776704.970254793</v>
       </c>
       <c r="K35" t="n">
-        <v>7322699.816052121</v>
+        <v>1545650.599303831</v>
       </c>
       <c r="L35" t="n">
-        <v>7699395.36423193</v>
+        <v>1507732.368643581</v>
       </c>
       <c r="M35" t="n">
-        <v>7165459.866037713</v>
+        <v>1323037.419515699</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3116703.58096503</v>
+        <v>1243750.488555539</v>
       </c>
       <c r="C36" t="n">
-        <v>4193758.288565408</v>
+        <v>1001815.297317259</v>
       </c>
       <c r="D36" t="n">
-        <v>3624216.497713723</v>
+        <v>1155670.878777107</v>
       </c>
       <c r="E36" t="n">
-        <v>3739651.453038116</v>
+        <v>1012106.07268612</v>
       </c>
       <c r="F36" t="n">
-        <v>4851297.296389073</v>
+        <v>1029698.493162117</v>
       </c>
       <c r="G36" t="n">
-        <v>3692640.076396097</v>
+        <v>939783.7881264689</v>
       </c>
       <c r="H36" t="n">
-        <v>3063676.864903603</v>
+        <v>662362.0239766145</v>
       </c>
       <c r="I36" t="n">
-        <v>3753738.914848323</v>
+        <v>626797.1249774612</v>
       </c>
       <c r="J36" t="n">
-        <v>4197276.141766679</v>
+        <v>795445.4070775257</v>
       </c>
       <c r="K36" t="n">
-        <v>3657654.061388734</v>
+        <v>385596.7123026922</v>
       </c>
       <c r="L36" t="n">
-        <v>3565120.662681363</v>
+        <v>437409.8972257582</v>
       </c>
       <c r="M36" t="n">
-        <v>4102667.466909126</v>
+        <v>385208.1281339286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3483692.812679403</v>
+        <v>2877793.409449537</v>
       </c>
       <c r="C37" t="n">
-        <v>5038649.720840049</v>
+        <v>4326248.086078342</v>
       </c>
       <c r="D37" t="n">
-        <v>6709534.876480961</v>
+        <v>4407198.181750638</v>
       </c>
       <c r="E37" t="n">
-        <v>4641893.723758169</v>
+        <v>3757117.137415382</v>
       </c>
       <c r="F37" t="n">
-        <v>4088242.365551112</v>
+        <v>3818711.085413965</v>
       </c>
       <c r="G37" t="n">
-        <v>4030711.215995179</v>
+        <v>4281036.190976104</v>
       </c>
       <c r="H37" t="n">
-        <v>6531205.27363918</v>
+        <v>4889791.577404106</v>
       </c>
       <c r="I37" t="n">
-        <v>7222501.668698055</v>
+        <v>4376219.740563994</v>
       </c>
       <c r="J37" t="n">
-        <v>4974717.180194329</v>
+        <v>5207371.350213355</v>
       </c>
       <c r="K37" t="n">
-        <v>6817841.317939776</v>
+        <v>4755803.216331751</v>
       </c>
       <c r="L37" t="n">
-        <v>5378835.676565658</v>
+        <v>4253933.770941027</v>
       </c>
       <c r="M37" t="n">
-        <v>6575380.631707686</v>
+        <v>3945186.122064414</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>974776.0720125299</v>
+        <v>4218336.856439356</v>
       </c>
       <c r="C38" t="n">
-        <v>2405446.102956045</v>
+        <v>3962901.235962542</v>
       </c>
       <c r="D38" t="n">
-        <v>2631740.856779129</v>
+        <v>4300749.727853837</v>
       </c>
       <c r="E38" t="n">
-        <v>480730.8282602301</v>
+        <v>4633126.069675114</v>
       </c>
       <c r="F38" t="n">
-        <v>709416.2774745483</v>
+        <v>4389681.862258725</v>
       </c>
       <c r="G38" t="n">
-        <v>1717473.676169245</v>
+        <v>4495299.663748755</v>
       </c>
       <c r="H38" t="n">
-        <v>632333.7040417953</v>
+        <v>4562267.179576291</v>
       </c>
       <c r="I38" t="n">
-        <v>115882.3525120475</v>
+        <v>5153600.998516061</v>
       </c>
       <c r="J38" t="n">
-        <v>756590.8122768833</v>
+        <v>4986878.708471624</v>
       </c>
       <c r="K38" t="n">
-        <v>1129302.281863497</v>
+        <v>4460040.22717705</v>
       </c>
       <c r="L38" t="n">
-        <v>1143349.307303839</v>
+        <v>5077150.325792537</v>
       </c>
       <c r="M38" t="n">
-        <v>11072.03922633256</v>
+        <v>4137733.693248791</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3836590.796663749</v>
+        <v>4457931.169146238</v>
       </c>
       <c r="C39" t="n">
-        <v>3337201.920055833</v>
+        <v>5175221.163662437</v>
       </c>
       <c r="D39" t="n">
-        <v>3534990.465971298</v>
+        <v>5348471.707217845</v>
       </c>
       <c r="E39" t="n">
-        <v>4255952.976704515</v>
+        <v>5353484.393713362</v>
       </c>
       <c r="F39" t="n">
-        <v>3852943.017273312</v>
+        <v>5265628.491364176</v>
       </c>
       <c r="G39" t="n">
-        <v>4564507.965903574</v>
+        <v>5630358.568347588</v>
       </c>
       <c r="H39" t="n">
-        <v>3482620.717934699</v>
+        <v>5520244.25469695</v>
       </c>
       <c r="I39" t="n">
-        <v>3649676.268157828</v>
+        <v>5666127.294123211</v>
       </c>
       <c r="J39" t="n">
-        <v>3682431.784113367</v>
+        <v>6361278.45728026</v>
       </c>
       <c r="K39" t="n">
-        <v>4944745.30335295</v>
+        <v>5258827.396252075</v>
       </c>
       <c r="L39" t="n">
-        <v>4548988.093851629</v>
+        <v>5334467.065846476</v>
       </c>
       <c r="M39" t="n">
-        <v>4812091.880747249</v>
+        <v>4993125.594117355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10959758.49610039</v>
+        <v>4427764.04885059</v>
       </c>
       <c r="C40" t="n">
-        <v>11199087.35494212</v>
+        <v>5204803.279971436</v>
       </c>
       <c r="D40" t="n">
-        <v>11629669.33522774</v>
+        <v>5255035.010188758</v>
       </c>
       <c r="E40" t="n">
-        <v>14344004.41096178</v>
+        <v>4972393.263698281</v>
       </c>
       <c r="F40" t="n">
-        <v>12121003.42872442</v>
+        <v>5322483.982428064</v>
       </c>
       <c r="G40" t="n">
-        <v>14398161.4556312</v>
+        <v>5119311.084717891</v>
       </c>
       <c r="H40" t="n">
-        <v>12772742.49359499</v>
+        <v>5538694.224968031</v>
       </c>
       <c r="I40" t="n">
-        <v>12551041.52953179</v>
+        <v>5376277.385289373</v>
       </c>
       <c r="J40" t="n">
-        <v>14599116.03581122</v>
+        <v>5706652.588918663</v>
       </c>
       <c r="K40" t="n">
-        <v>16132921.40630907</v>
+        <v>5363828.460405681</v>
       </c>
       <c r="L40" t="n">
-        <v>15616325.74068926</v>
+        <v>5668936.487998839</v>
       </c>
       <c r="M40" t="n">
-        <v>15936043.21362968</v>
+        <v>4695583.422785049</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2067294.722343815</v>
+        <v>2439168.666696614</v>
       </c>
       <c r="C41" t="n">
-        <v>6136068.154558375</v>
+        <v>3116320.360445141</v>
       </c>
       <c r="D41" t="n">
-        <v>5674213.0419418</v>
+        <v>3568380.601633846</v>
       </c>
       <c r="E41" t="n">
-        <v>6395331.164647513</v>
+        <v>2845575.524241027</v>
       </c>
       <c r="F41" t="n">
-        <v>5040031.322875067</v>
+        <v>3093226.937009413</v>
       </c>
       <c r="G41" t="n">
-        <v>6594739.482247743</v>
+        <v>3290530.84557354</v>
       </c>
       <c r="H41" t="n">
-        <v>5635090.159145482</v>
+        <v>3339401.471951661</v>
       </c>
       <c r="I41" t="n">
-        <v>12848404.78525123</v>
+        <v>3560156.997643541</v>
       </c>
       <c r="J41" t="n">
-        <v>9449457.275108144</v>
+        <v>3680620.275641932</v>
       </c>
       <c r="K41" t="n">
-        <v>6246607.745957654</v>
+        <v>3129708.062134705</v>
       </c>
       <c r="L41" t="n">
-        <v>5988968.192240485</v>
+        <v>3797605.151375558</v>
       </c>
       <c r="M41" t="n">
-        <v>5924030.488652585</v>
+        <v>3110048.808166754</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8247167.413704191</v>
+        <v>3522623.300062382</v>
       </c>
       <c r="C42" t="n">
-        <v>10276633.38620401</v>
+        <v>3804353.123277835</v>
       </c>
       <c r="D42" t="n">
-        <v>11969040.10068203</v>
+        <v>4085569.611010628</v>
       </c>
       <c r="E42" t="n">
-        <v>12383250.90515699</v>
+        <v>3974714.415744401</v>
       </c>
       <c r="F42" t="n">
-        <v>9906650.142428912</v>
+        <v>4063192.823696688</v>
       </c>
       <c r="G42" t="n">
-        <v>11170862.56888131</v>
+        <v>4076078.87910954</v>
       </c>
       <c r="H42" t="n">
-        <v>11668507.73986151</v>
+        <v>4531301.545482703</v>
       </c>
       <c r="I42" t="n">
-        <v>10600701.98205584</v>
+        <v>5018978.312499076</v>
       </c>
       <c r="J42" t="n">
-        <v>12255050.83606303</v>
+        <v>4815671.278216265</v>
       </c>
       <c r="K42" t="n">
-        <v>11886485.52718931</v>
+        <v>4616435.913591252</v>
       </c>
       <c r="L42" t="n">
-        <v>12655617.7385407</v>
+        <v>4472718.056507233</v>
       </c>
       <c r="M42" t="n">
-        <v>15382710.06556264</v>
+        <v>3403460.823966101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3089477.801105256</v>
+        <v>2197015.982787311</v>
       </c>
       <c r="C43" t="n">
-        <v>3746645.915431341</v>
+        <v>3170174.531333935</v>
       </c>
       <c r="D43" t="n">
-        <v>4912138.182713917</v>
+        <v>3286470.620080905</v>
       </c>
       <c r="E43" t="n">
-        <v>4871133.19568262</v>
+        <v>3107750.300595791</v>
       </c>
       <c r="F43" t="n">
-        <v>3202905.497646869</v>
+        <v>3009361.397164268</v>
       </c>
       <c r="G43" t="n">
-        <v>3449873.976979526</v>
+        <v>3058235.122407725</v>
       </c>
       <c r="H43" t="n">
-        <v>4292475.729663052</v>
+        <v>3130577.174976876</v>
       </c>
       <c r="I43" t="n">
-        <v>3641857.584698264</v>
+        <v>3158478.578491342</v>
       </c>
       <c r="J43" t="n">
-        <v>5235159.003491677</v>
+        <v>3170166.319839701</v>
       </c>
       <c r="K43" t="n">
-        <v>5102147.347496694</v>
+        <v>3289175.719773248</v>
       </c>
       <c r="L43" t="n">
-        <v>4631809.254406755</v>
+        <v>3512701.776365284</v>
       </c>
       <c r="M43" t="n">
-        <v>5601549.606971299</v>
+        <v>2456540.052216282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11283173.35969524</v>
+        <v>4830510.554446043</v>
       </c>
       <c r="C44" t="n">
-        <v>14263111.1149826</v>
+        <v>5641787.746524801</v>
       </c>
       <c r="D44" t="n">
-        <v>14202399.44033565</v>
+        <v>5102697.537390668</v>
       </c>
       <c r="E44" t="n">
-        <v>13726228.83880186</v>
+        <v>4431976.38732106</v>
       </c>
       <c r="F44" t="n">
-        <v>15287796.89488047</v>
+        <v>4749637.478062601</v>
       </c>
       <c r="G44" t="n">
-        <v>13982489.11074398</v>
+        <v>5277666.257597239</v>
       </c>
       <c r="H44" t="n">
-        <v>14022000.73236738</v>
+        <v>4738128.105521292</v>
       </c>
       <c r="I44" t="n">
-        <v>16198905.396563</v>
+        <v>5865522.295914439</v>
       </c>
       <c r="J44" t="n">
-        <v>16362403.68323336</v>
+        <v>5141258.199990796</v>
       </c>
       <c r="K44" t="n">
-        <v>16431988.44458759</v>
+        <v>4967426.315672051</v>
       </c>
       <c r="L44" t="n">
-        <v>15481071.07396706</v>
+        <v>5863745.262953592</v>
       </c>
       <c r="M44" t="n">
-        <v>18102290.33884309</v>
+        <v>4273809.969858724</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3581634.900408381</v>
+        <v>2423129.284574933</v>
       </c>
       <c r="C45" t="n">
-        <v>4566202.629176518</v>
+        <v>2863714.001949832</v>
       </c>
       <c r="D45" t="n">
-        <v>5189882.207856908</v>
+        <v>3222186.677978927</v>
       </c>
       <c r="E45" t="n">
-        <v>4315005.03724971</v>
+        <v>3089736.329824655</v>
       </c>
       <c r="F45" t="n">
-        <v>3991221.701483155</v>
+        <v>2702732.580904434</v>
       </c>
       <c r="G45" t="n">
-        <v>3134344.099200747</v>
+        <v>2998789.528035614</v>
       </c>
       <c r="H45" t="n">
-        <v>5160590.926782192</v>
+        <v>3017108.182510758</v>
       </c>
       <c r="I45" t="n">
-        <v>4303657.594143651</v>
+        <v>3557644.155493034</v>
       </c>
       <c r="J45" t="n">
-        <v>3844693.394245853</v>
+        <v>2894120.770537614</v>
       </c>
       <c r="K45" t="n">
-        <v>3936774.558807613</v>
+        <v>2967300.294009529</v>
       </c>
       <c r="L45" t="n">
-        <v>3384755.622601158</v>
+        <v>3109840.309869087</v>
       </c>
       <c r="M45" t="n">
-        <v>4627018.613761948</v>
+        <v>2524947.807708596</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9820344.522626454</v>
+        <v>2116697.711861384</v>
       </c>
       <c r="C46" t="n">
-        <v>12995980.66152056</v>
+        <v>2964258.215120187</v>
       </c>
       <c r="D46" t="n">
-        <v>12945999.27251756</v>
+        <v>2246469.034678483</v>
       </c>
       <c r="E46" t="n">
-        <v>13163991.36733937</v>
+        <v>2247758.721511074</v>
       </c>
       <c r="F46" t="n">
-        <v>10240681.93829973</v>
+        <v>2158142.925709373</v>
       </c>
       <c r="G46" t="n">
-        <v>12785890.14332199</v>
+        <v>2216786.22514275</v>
       </c>
       <c r="H46" t="n">
-        <v>16376692.23565748</v>
+        <v>2362478.796710433</v>
       </c>
       <c r="I46" t="n">
-        <v>13674669.35746617</v>
+        <v>2586804.721228558</v>
       </c>
       <c r="J46" t="n">
-        <v>11157314.14312653</v>
+        <v>2653134.978173389</v>
       </c>
       <c r="K46" t="n">
-        <v>10707734.48566898</v>
+        <v>1981044.309655436</v>
       </c>
       <c r="L46" t="n">
-        <v>12572582.9087273</v>
+        <v>2312059.813200542</v>
       </c>
       <c r="M46" t="n">
-        <v>16649849.14145947</v>
+        <v>2042262.915776983</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2318282.873362329</v>
+        <v>1933307.68724644</v>
       </c>
       <c r="C47" t="n">
-        <v>2335167.493151472</v>
+        <v>2126951.474510028</v>
       </c>
       <c r="D47" t="n">
-        <v>2624539.84716794</v>
+        <v>2408159.08757956</v>
       </c>
       <c r="E47" t="n">
-        <v>2790521.508973752</v>
+        <v>2485744.059844351</v>
       </c>
       <c r="F47" t="n">
-        <v>2817816.621646542</v>
+        <v>2203237.849981835</v>
       </c>
       <c r="G47" t="n">
-        <v>3001083.951273199</v>
+        <v>2301683.028776596</v>
       </c>
       <c r="H47" t="n">
-        <v>2915144.176583775</v>
+        <v>2369753.493164981</v>
       </c>
       <c r="I47" t="n">
-        <v>2958164.19938913</v>
+        <v>2388787.66100388</v>
       </c>
       <c r="J47" t="n">
-        <v>3009483.095100394</v>
+        <v>2452734.464698742</v>
       </c>
       <c r="K47" t="n">
-        <v>2937895.185525195</v>
+        <v>2259184.991657402</v>
       </c>
       <c r="L47" t="n">
-        <v>3028112.178892735</v>
+        <v>2256107.717305646</v>
       </c>
       <c r="M47" t="n">
-        <v>3035113.965269264</v>
+        <v>2332389.494917882</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>242899.3845189309</v>
+        <v>4775450.252546458</v>
       </c>
       <c r="C48" t="n">
-        <v>147082.1480148316</v>
+        <v>4893928.087628882</v>
       </c>
       <c r="D48" t="n">
-        <v>35502.93684778232</v>
+        <v>5277752.297795091</v>
       </c>
       <c r="E48" t="n">
-        <v>78641.66671801244</v>
+        <v>4808106.994109041</v>
       </c>
       <c r="F48" t="n">
-        <v>-136420.9517244544</v>
+        <v>4595675.768574227</v>
       </c>
       <c r="G48" t="n">
-        <v>-278795.7151659468</v>
+        <v>4915514.004492166</v>
       </c>
       <c r="H48" t="n">
-        <v>-247453.2614596564</v>
+        <v>4892366.748620271</v>
       </c>
       <c r="I48" t="n">
-        <v>-344215.1664487635</v>
+        <v>5365096.400043264</v>
       </c>
       <c r="J48" t="n">
-        <v>-433264.7491321762</v>
+        <v>5414504.790633762</v>
       </c>
       <c r="K48" t="n">
-        <v>-521236.8826609068</v>
+        <v>5111205.798306906</v>
       </c>
       <c r="L48" t="n">
-        <v>-596414.006549526</v>
+        <v>5411662.84319167</v>
       </c>
       <c r="M48" t="n">
-        <v>-320829.144759338</v>
+        <v>5071195.107494517</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>573133.106271724</v>
+        <v>967429.6366923236</v>
       </c>
       <c r="C49" t="n">
-        <v>687662.328943419</v>
+        <v>1223252.767101699</v>
       </c>
       <c r="D49" t="n">
-        <v>912033.4577046647</v>
+        <v>1250511.61528726</v>
       </c>
       <c r="E49" t="n">
-        <v>913769.4179105645</v>
+        <v>1034380.708207562</v>
       </c>
       <c r="F49" t="n">
-        <v>664178.348730968</v>
+        <v>1040083.62295763</v>
       </c>
       <c r="G49" t="n">
-        <v>750724.732695359</v>
+        <v>1098598.589781173</v>
       </c>
       <c r="H49" t="n">
-        <v>694271.2584860052</v>
+        <v>1136000.113182836</v>
       </c>
       <c r="I49" t="n">
-        <v>669319.2624699334</v>
+        <v>1252631.162617914</v>
       </c>
       <c r="J49" t="n">
-        <v>854275.405181934</v>
+        <v>1095730.582747484</v>
       </c>
       <c r="K49" t="n">
-        <v>953228.6512967407</v>
+        <v>1135147.918701106</v>
       </c>
       <c r="L49" t="n">
-        <v>1044479.043220508</v>
+        <v>1194620.83710775</v>
       </c>
       <c r="M49" t="n">
-        <v>1006128.122524346</v>
+        <v>1102614.597573467</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1501764.340217407</v>
+        <v>2719688.680603446</v>
       </c>
       <c r="C50" t="n">
-        <v>1601711.114682155</v>
+        <v>2858230.260861179</v>
       </c>
       <c r="D50" t="n">
-        <v>1859157.418613962</v>
+        <v>3084781.635001252</v>
       </c>
       <c r="E50" t="n">
-        <v>1989957.278602527</v>
+        <v>3076200.791957684</v>
       </c>
       <c r="F50" t="n">
-        <v>1834227.619449921</v>
+        <v>3494931.712254035</v>
       </c>
       <c r="G50" t="n">
-        <v>1943011.308251286</v>
+        <v>3274366.583914309</v>
       </c>
       <c r="H50" t="n">
-        <v>1866139.487039095</v>
+        <v>3402841.333917094</v>
       </c>
       <c r="I50" t="n">
-        <v>1874323.738490833</v>
+        <v>3354202.17609207</v>
       </c>
       <c r="J50" t="n">
-        <v>2145747.914502262</v>
+        <v>3315875.764719426</v>
       </c>
       <c r="K50" t="n">
-        <v>2143491.651138726</v>
+        <v>3404885.433552476</v>
       </c>
       <c r="L50" t="n">
-        <v>2016177.248200839</v>
+        <v>3537801.767636586</v>
       </c>
       <c r="M50" t="n">
-        <v>2183419.297542854</v>
+        <v>3262625.496250929</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2898402.787161685</v>
+        <v>3183639.585954498</v>
       </c>
       <c r="C51" t="n">
-        <v>2814247.11352352</v>
+        <v>3224236.414506061</v>
       </c>
       <c r="D51" t="n">
-        <v>3063081.117654849</v>
+        <v>3599168.024316022</v>
       </c>
       <c r="E51" t="n">
-        <v>3163636.239841596</v>
+        <v>3511638.287641244</v>
       </c>
       <c r="F51" t="n">
-        <v>2982143.06325747</v>
+        <v>3508600.697435823</v>
       </c>
       <c r="G51" t="n">
-        <v>3545019.037567843</v>
+        <v>3494172.076965443</v>
       </c>
       <c r="H51" t="n">
-        <v>3804949.724404458</v>
+        <v>3636987.586015999</v>
       </c>
       <c r="I51" t="n">
-        <v>3778083.06807292</v>
+        <v>3803573.848202871</v>
       </c>
       <c r="J51" t="n">
-        <v>3704128.326520228</v>
+        <v>3818432.328279753</v>
       </c>
       <c r="K51" t="n">
-        <v>3720021.710791402</v>
+        <v>3848123.08046025</v>
       </c>
       <c r="L51" t="n">
-        <v>3602476.365477771</v>
+        <v>3812153.815221699</v>
       </c>
       <c r="M51" t="n">
-        <v>3752588.126879621</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2796110.326585033</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2689251.323989969</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2848563.407595534</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3034654.021272676</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3144918.84097729</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3197800.65114328</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3206135.730104263</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3856507.751504808</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2933850.404895407</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3904618.625493438</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3151306.44920654</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3617466.962798123</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1436034.119595049</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1517021.824261543</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1935428.383761904</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1613391.111091811</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1535594.853474719</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1409338.609086921</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1771507.028311271</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1666716.113660029</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1827643.648394052</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1998233.933722382</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1758478.24451201</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1711781.471867501</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>757810.7650093295</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1165524.509914358</v>
-      </c>
-      <c r="D54" t="n">
-        <v>908897.8574417072</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1048061.998941511</v>
-      </c>
-      <c r="F54" t="n">
-        <v>889806.4106305781</v>
-      </c>
-      <c r="G54" t="n">
-        <v>892708.2862309288</v>
-      </c>
-      <c r="H54" t="n">
-        <v>859858.7317924054</v>
-      </c>
-      <c r="I54" t="n">
-        <v>495997.1241728838</v>
-      </c>
-      <c r="J54" t="n">
-        <v>445740.3252072777</v>
-      </c>
-      <c r="K54" t="n">
-        <v>599696.6335687242</v>
-      </c>
-      <c r="L54" t="n">
-        <v>175155.7865620804</v>
-      </c>
-      <c r="M54" t="n">
-        <v>212325.3992354735</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2738740.089746883</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2781476.107247879</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4171262.975988075</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4193535.997651855</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3484735.735894233</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3487798.169864284</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4226889.691453213</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4441755.14367459</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3869418.715940133</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4641921.696510466</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4131697.821810533</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3571254.596349208</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3716574.894238906</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4322554.908756346</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4067091.574650333</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4404911.133113005</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4737259.884754867</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4493786.598591301</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4775351.6525477</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4666321.781588342</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5257627.073910197</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5090875.631315636</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4564000.367641066</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5180991.206977549</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4309740.481233723</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4673582.525592501</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5402292.829758799</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5586979.765846068</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5603433.550216632</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5527021.437394603</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6002826.431182247</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5804563.897503375</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5961890.424863322</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6668499.323258214</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5577497.536184881</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5664595.441902468</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4093592.502879918</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4458600.963162972</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5242232.039941232</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5299054.96430984</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5023004.052237419</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5379685.582877259</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5146324.071389402</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5609073.891223355</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5453247.994020117</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5790213.764255257</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5453980.076329126</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5765700.69492695</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2817163.347192514</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2508939.127453594</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3190087.241214926</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3646091.586914973</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2928958.871751059</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3181601.915216709</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3542269.049862641</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3436507.868213008</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3662569.050130014</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3787473.894670851</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3241055.584917727</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3913838.01186857</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3087983.396588423</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3555262.431785862</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3839935.963826058</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4124096.209616917</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4016184.820545666</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4107607.081540539</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4295886.496683806</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4581609.26271833</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5072229.95189615</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4871866.852815758</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4675575.43706233</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4534861.328597783</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2113163.159750566</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2097656.357087921</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3088437.43283438</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3222351.523065918</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3061250.515958785</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2980470.753480839</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3075450.79291293</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3136915.233896602</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3182427.475214148</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3211727.992693742</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3348348.928451999</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3589473.394226745</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4988894.0687826</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5374940.023472349</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6213641.728387527</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5701989.79735935</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5058719.389915431</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5403857.273821564</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6478910.677938312</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5447360.650303371</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6602191.315164153</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5905365.255732162</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5758985.850034477</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6682838.846040727</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2489127.09346127</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2536109.405172611</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2991955.432934702</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3365691.004784483</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3248504.793841361</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2876766.154137906</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3284071.666108002</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3221682.430705852</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3777483.526799832</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3129226.023071988</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3217672.021362689</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3375450.345340258</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2018151.412716384</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2153695.462824614</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3004664.673027562</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2290287.602557525</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2294987.673819588</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2208779.169493767</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2380004.820412738</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2419934.94688096</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2647672.115784207</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2717406.096307209</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2048724.134831512</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2383156.862702937</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2405610.278250925</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2493734.462751776</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2706924.808012045</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3007661.123943772</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3104774.70087181</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2841797.095034787</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3075933.456661105</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3047417.826383913</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3085932.914481882</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3169408.069336453</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2995387.200533838</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3011829.845621518</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4983103.486630511</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5221626.591245466</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5347848.744167665</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5739419.981449217</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5277523.634703663</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5072842.740729593</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5249903.236252963</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5385019.703826178</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5865506.848453652</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5922671.650783191</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5627128.299929869</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5935346.109139082</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>839709.7222972119</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1025248.485055634</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1282268.713775058</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1310723.184425135</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1095787.037261803</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1102684.207841787</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1210870.517899161</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1200996.961654725</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1318818.15118385</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1163109.12764309</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1203718.847641082</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1264374.499783552</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2733235.03166145</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2854851.147744215</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3007409.853947895</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3247975.699318235</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3253408.027887085</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3686151.139525073</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3512066.072722001</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3622089.884953481</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3587459.800216083</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3563142.52222222</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3666161.44412187</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3813112.333733469</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2623224.202802737</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2811277.68193038</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2843065.252973059</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3209162.651754536</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3112799.427261995</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3100918.681288336</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3130900.014130174</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3211649.112913179</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3369380.795357277</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3375392.942769144</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3396242.831302573</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3351485.789002541</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46643706.14410131</v>
-      </c>
-      <c r="C70" t="n">
-        <v>52013589.15042687</v>
-      </c>
-      <c r="D70" t="n">
-        <v>56803847.04427604</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62415603.88320601</v>
-      </c>
-      <c r="F70" t="n">
-        <v>67574405.55377066</v>
-      </c>
-      <c r="G70" t="n">
-        <v>73488730.74343167</v>
-      </c>
-      <c r="H70" t="n">
-        <v>80194078.52149227</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86670763.55837405</v>
-      </c>
-      <c r="J70" t="n">
-        <v>92606200.18412848</v>
-      </c>
-      <c r="K70" t="n">
-        <v>99266947.4400015</v>
-      </c>
-      <c r="L70" t="n">
-        <v>103124814.8205898</v>
-      </c>
-      <c r="M70" t="n">
-        <v>110205705.677712</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23787735.02703618</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34618921.93675544</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34357313.98770303</v>
-      </c>
-      <c r="E71" t="n">
-        <v>37611585.43234866</v>
-      </c>
-      <c r="F71" t="n">
-        <v>40040875.75607142</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41917952.34564663</v>
-      </c>
-      <c r="H71" t="n">
-        <v>41536922.57909908</v>
-      </c>
-      <c r="I71" t="n">
-        <v>43761313.78339249</v>
-      </c>
-      <c r="J71" t="n">
-        <v>46078748.89591285</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47333540.6278405</v>
-      </c>
-      <c r="L71" t="n">
-        <v>50428522.19899155</v>
-      </c>
-      <c r="M71" t="n">
-        <v>63080534.74295354</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>142071.094760509</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2470944.341953378</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2999740.914831722</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1353643.297529604</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5752345.739626318</v>
-      </c>
-      <c r="G72" t="n">
-        <v>512869.1921765329</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2385112.422524504</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1404091.051713825</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2861747.884470223</v>
-      </c>
-      <c r="K72" t="n">
-        <v>621901.0497938767</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3356778.841333078</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1349457.36134075</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11145900.38396814</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13483437.68512238</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15157686.2452575</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13994470.67435541</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14993969.40617695</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13547178.11917813</v>
-      </c>
-      <c r="H73" t="n">
-        <v>14007011.50027224</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13996034.99543783</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13809044.96534402</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14695719.02214675</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13501226.19382149</v>
-      </c>
-      <c r="M73" t="n">
-        <v>14281233.01078042</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12722562.59739861</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19309385.58336344</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21530405.09939189</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21145169.67111799</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19541178.82144041</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19540641.58487939</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19323748.84258704</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16470811.34122309</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19213550.57032768</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19211208.10016247</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20944233.08951222</v>
-      </c>
-      <c r="M74" t="n">
-        <v>26646147.48671626</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>28216118.54733044</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29852408.97382335</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33296062.4638803</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34393070.58463395</v>
-      </c>
-      <c r="F75" t="n">
-        <v>33553478.68686217</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34654136.20477019</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33541973.95343222</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34706564.68984018</v>
-      </c>
-      <c r="J75" t="n">
-        <v>33646847.13460633</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33945561.30527069</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34473224.37786609</v>
-      </c>
-      <c r="M75" t="n">
-        <v>43188599.53730252</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19285039.19809286</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19460522.20434103</v>
-      </c>
-      <c r="D76" t="n">
-        <v>20999584.62097014</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22838280.39955542</v>
-      </c>
-      <c r="F76" t="n">
-        <v>24082917.36875142</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24297776.23389784</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24413621.40201458</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24762879.74707715</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25284435.03714587</v>
-      </c>
-      <c r="K76" t="n">
-        <v>25885540.11367746</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26064939.43937813</v>
-      </c>
-      <c r="M76" t="n">
-        <v>26744241.80104734</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22163212.42581931</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23581866.27368971</v>
-      </c>
-      <c r="D77" t="n">
-        <v>24149082.77457763</v>
-      </c>
-      <c r="E77" t="n">
-        <v>25266260.92697606</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25826041.73606072</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28068724.13920954</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28372942.89325528</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29346308.0079333</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31019297.31803525</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32918488.01002612</v>
-      </c>
-      <c r="L77" t="n">
-        <v>33775657.70306915</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33147379.56656513</v>
+        <v>3643772.189214451</v>
       </c>
     </row>
   </sheetData>
